--- a/pro_retro_dataset_20231127.xlsx
+++ b/pro_retro_dataset_20231127.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucjujb6_ucl_ac_uk/Documents/Wellcome fellowship/Prospective and retrospective measures maltreatment and psychopathology/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucjujb6_ucl_ac_uk/Documents/Wellcome fellowship/Prospective and retrospective measures of maltreatment and psychopathology/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB7646A-3B65-5946-A083-F245C868ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DEB7646A-3B65-5946-A083-F245C868ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C5CDB3-4E76-754C-B83E-09D913CC9DD9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extraction" sheetId="1" r:id="rId1"/>
@@ -1558,10 +1558,10 @@
   </sheetPr>
   <dimension ref="A1:BF210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="BE99" sqref="BE99"/>
+      <selection pane="bottomLeft" activeCell="BB143" sqref="BB143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17957,14 +17957,14 @@
         <v>0</v>
       </c>
       <c r="BB102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC102" s="2">
         <v>1</v>
       </c>
       <c r="BD102" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18108,14 +18108,14 @@
         <v>0</v>
       </c>
       <c r="BB103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC103" s="2">
         <v>1</v>
       </c>
       <c r="BD103" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF103" s="15"/>
     </row>
@@ -18261,14 +18261,14 @@
         <v>0</v>
       </c>
       <c r="BB104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC104" s="2">
         <v>1</v>
       </c>
       <c r="BD104" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF104" s="15"/>
     </row>
@@ -18414,14 +18414,14 @@
         <v>0</v>
       </c>
       <c r="BB105" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC105" s="2">
         <v>1</v>
       </c>
       <c r="BD105" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF105" s="15"/>
     </row>
@@ -18567,14 +18567,14 @@
         <v>0</v>
       </c>
       <c r="BB106" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC106" s="2">
         <v>1</v>
       </c>
       <c r="BD106" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF106" s="15"/>
     </row>
@@ -18720,14 +18720,14 @@
         <v>0</v>
       </c>
       <c r="BB107" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC107" s="2">
         <v>1</v>
       </c>
       <c r="BD107" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF107" s="15"/>
     </row>
@@ -18873,14 +18873,14 @@
         <v>0</v>
       </c>
       <c r="BB108" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC108" s="2">
         <v>1</v>
       </c>
       <c r="BD108" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF108" s="15"/>
     </row>
@@ -19026,14 +19026,14 @@
         <v>0</v>
       </c>
       <c r="BB109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC109" s="2">
         <v>1</v>
       </c>
       <c r="BD109" s="5">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF109" s="15"/>
     </row>
@@ -24600,14 +24600,14 @@
         <v>0</v>
       </c>
       <c r="BB142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC142" s="2">
         <v>0</v>
       </c>
       <c r="BD142" s="5">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33467,8 +33467,8 @@
   </sheetPr>
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
